--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5962 L5602/FT_L5962 L5602.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5962 L5602/FT_L5962 L5602.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5962 L5602\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2121D9-1DDD-4AF8-A8B8-EE311097C905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B439A8-C508-47CB-80F1-8784B4A55268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="203">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -143,13 +143,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.62.docx</t>
-  </si>
-  <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.62.docx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>[輸出欄位]戶號</t>
   </si>
   <si>
@@ -765,6 +758,9 @@
   <si>
     <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.63.docx</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.DOCX</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1336,7 @@
   <dimension ref="A1:Q166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1417,16 +1413,16 @@
     </row>
     <row r="2" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>26</v>
@@ -1451,27 +1447,27 @@
         <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C3" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>27</v>
@@ -1496,33 +1492,33 @@
         <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
@@ -1541,27 +1537,27 @@
         <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D5" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>30</v>
@@ -1586,36 +1582,36 @@
         <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>12</v>
@@ -1633,36 +1629,36 @@
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>12</v>
@@ -1680,36 +1676,36 @@
         <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q7" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>12</v>
@@ -1727,36 +1723,36 @@
         <v>16</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q8" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>12</v>
@@ -1774,7 +1770,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1782,30 +1778,30 @@
         <v>23</v>
       </c>
       <c r="Q9" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D10" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>12</v>
@@ -1823,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1831,30 +1827,30 @@
         <v>23</v>
       </c>
       <c r="Q10" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>12</v>
@@ -1872,36 +1868,36 @@
         <v>16</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q11" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>12</v>
@@ -1919,36 +1915,36 @@
         <v>16</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D13" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>12</v>
@@ -1966,36 +1962,36 @@
         <v>16</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q13" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>108</v>
-      </c>
       <c r="F14" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>12</v>
@@ -2013,36 +2009,36 @@
         <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D15" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>12</v>
@@ -2060,36 +2056,36 @@
         <v>16</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D16" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>12</v>
@@ -2107,36 +2103,36 @@
         <v>16</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q16" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D17" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>12</v>
@@ -2154,36 +2150,36 @@
         <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D18" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>12</v>
@@ -2201,36 +2197,36 @@
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q18" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D19" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>12</v>
@@ -2248,36 +2244,36 @@
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q19" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D20" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>12</v>
@@ -2295,36 +2291,36 @@
         <v>16</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q20" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="D21" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>12</v>
@@ -2342,37 +2338,37 @@
         <v>16</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Q21" s="11">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="D22" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="H22" s="10" t="s">
         <v>12</v>
       </c>
@@ -2389,7 +2385,7 @@
         <v>16</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2397,30 +2393,30 @@
         <v>23</v>
       </c>
       <c r="Q22" s="12">
-        <v>44572</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="D23" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>12</v>
@@ -2438,7 +2434,7 @@
         <v>16</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>23</v>
@@ -2449,25 +2445,25 @@
     </row>
     <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="D24" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>12</v>
@@ -2485,7 +2481,7 @@
         <v>16</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>23</v>
@@ -2496,25 +2492,25 @@
     </row>
     <row r="25" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C25" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>12</v>
@@ -2532,7 +2528,7 @@
         <v>16</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>23</v>
@@ -2543,25 +2539,25 @@
     </row>
     <row r="26" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C26" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>12</v>
@@ -2579,7 +2575,7 @@
         <v>16</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>23</v>
@@ -2590,25 +2586,25 @@
     </row>
     <row r="27" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C27" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>12</v>
@@ -2626,7 +2622,7 @@
         <v>16</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>23</v>
@@ -2637,25 +2633,25 @@
     </row>
     <row r="28" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C28" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>12</v>
@@ -2673,7 +2669,7 @@
         <v>16</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>23</v>
@@ -2684,25 +2680,25 @@
     </row>
     <row r="29" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C29" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>12</v>
@@ -2720,7 +2716,7 @@
         <v>16</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>23</v>
@@ -2731,25 +2727,25 @@
     </row>
     <row r="30" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C30" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>12</v>
@@ -2767,7 +2763,7 @@
         <v>16</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>23</v>
@@ -2778,25 +2774,25 @@
     </row>
     <row r="31" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C31" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>12</v>
@@ -2814,7 +2810,7 @@
         <v>16</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>23</v>
@@ -2825,25 +2821,25 @@
     </row>
     <row r="32" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C32" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>12</v>
@@ -2861,7 +2857,7 @@
         <v>16</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>23</v>
@@ -2872,25 +2868,25 @@
     </row>
     <row r="33" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C33" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>12</v>
@@ -2908,7 +2904,7 @@
         <v>16</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>23</v>
@@ -2919,25 +2915,25 @@
     </row>
     <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C34" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>12</v>
@@ -2955,7 +2951,7 @@
         <v>16</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>23</v>
@@ -2966,25 +2962,25 @@
     </row>
     <row r="35" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C35" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>12</v>
@@ -3002,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>23</v>
@@ -3013,25 +3009,25 @@
     </row>
     <row r="36" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C36" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>12</v>
@@ -3049,7 +3045,7 @@
         <v>16</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>23</v>
@@ -3060,25 +3056,25 @@
     </row>
     <row r="37" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C37" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>12</v>
@@ -3096,7 +3092,7 @@
         <v>16</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>23</v>
@@ -3107,25 +3103,25 @@
     </row>
     <row r="38" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C38" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>12</v>
@@ -3143,7 +3139,7 @@
         <v>16</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>23</v>
@@ -3154,25 +3150,25 @@
     </row>
     <row r="39" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C39" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>12</v>
@@ -3190,7 +3186,7 @@
         <v>16</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>23</v>
@@ -3201,25 +3197,25 @@
     </row>
     <row r="40" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C40" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>12</v>
@@ -3237,7 +3233,7 @@
         <v>16</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>23</v>
@@ -3248,22 +3244,22 @@
     </row>
     <row r="41" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C41" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>12</v>
@@ -3281,7 +3277,7 @@
         <v>16</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>23</v>
@@ -3292,22 +3288,22 @@
     </row>
     <row r="42" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C42" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>12</v>
@@ -3325,7 +3321,7 @@
         <v>16</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>23</v>
@@ -3336,22 +3332,22 @@
     </row>
     <row r="43" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C43" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>12</v>
@@ -3369,7 +3365,7 @@
         <v>16</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>23</v>
@@ -3380,22 +3376,22 @@
     </row>
     <row r="44" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C44" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>12</v>
@@ -3413,7 +3409,7 @@
         <v>16</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>23</v>
@@ -3424,22 +3420,22 @@
     </row>
     <row r="45" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C45" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>12</v>
@@ -3457,7 +3453,7 @@
         <v>16</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>23</v>
@@ -3468,22 +3464,22 @@
     </row>
     <row r="46" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C46" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>12</v>
@@ -3501,7 +3497,7 @@
         <v>16</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>23</v>
@@ -3512,25 +3508,25 @@
     </row>
     <row r="47" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C47" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>12</v>
@@ -3548,7 +3544,7 @@
         <v>16</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>23</v>
@@ -3559,26 +3555,26 @@
     </row>
     <row r="48" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C48" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F48" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="H48" s="5" t="s">
         <v>12</v>
       </c>
@@ -3595,7 +3591,7 @@
         <v>16</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>23</v>
@@ -3606,22 +3602,22 @@
     </row>
     <row r="49" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C49" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>12</v>
@@ -3639,7 +3635,7 @@
         <v>16</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>23</v>
@@ -3650,22 +3646,22 @@
     </row>
     <row r="50" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C50" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>12</v>
@@ -3683,7 +3679,7 @@
         <v>16</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>23</v>
@@ -3694,22 +3690,22 @@
     </row>
     <row r="51" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C51" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>12</v>
@@ -3727,7 +3723,7 @@
         <v>16</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>23</v>
@@ -3738,25 +3734,25 @@
     </row>
     <row r="52" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C52" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>12</v>
@@ -3774,7 +3770,7 @@
         <v>16</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>23</v>
@@ -3785,25 +3781,25 @@
     </row>
     <row r="53" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="C53" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>12</v>
@@ -3821,7 +3817,7 @@
         <v>16</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>23</v>
@@ -3832,25 +3828,25 @@
     </row>
     <row r="54" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>12</v>
@@ -3868,7 +3864,7 @@
         <v>16</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
@@ -3881,25 +3877,25 @@
     </row>
     <row r="55" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>12</v>
@@ -3917,7 +3913,7 @@
         <v>16</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>23</v>
@@ -3928,25 +3924,25 @@
     </row>
     <row r="56" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>12</v>
@@ -3964,7 +3960,7 @@
         <v>16</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>23</v>
@@ -3975,25 +3971,25 @@
     </row>
     <row r="57" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>12</v>
@@ -4011,7 +4007,7 @@
         <v>16</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>23</v>
@@ -4022,25 +4018,25 @@
     </row>
     <row r="58" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>12</v>
@@ -4058,7 +4054,7 @@
         <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>23</v>
@@ -4069,25 +4065,25 @@
     </row>
     <row r="59" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>12</v>
@@ -4105,7 +4101,7 @@
         <v>16</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>23</v>
@@ -4116,25 +4112,25 @@
     </row>
     <row r="60" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>12</v>
@@ -4152,7 +4148,7 @@
         <v>16</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>23</v>
@@ -4163,25 +4159,25 @@
     </row>
     <row r="61" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>12</v>
@@ -4199,7 +4195,7 @@
         <v>16</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>23</v>
@@ -4210,25 +4206,25 @@
     </row>
     <row r="62" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>12</v>
@@ -4246,7 +4242,7 @@
         <v>16</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>23</v>
@@ -4257,25 +4253,25 @@
     </row>
     <row r="63" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>12</v>
@@ -4293,7 +4289,7 @@
         <v>16</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>23</v>
@@ -4304,25 +4300,25 @@
     </row>
     <row r="64" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>12</v>
@@ -4340,7 +4336,7 @@
         <v>16</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>23</v>
@@ -4351,25 +4347,25 @@
     </row>
     <row r="65" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>12</v>
@@ -4387,7 +4383,7 @@
         <v>16</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>23</v>
@@ -4398,25 +4394,25 @@
     </row>
     <row r="66" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>12</v>
@@ -4434,7 +4430,7 @@
         <v>16</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>23</v>
@@ -4445,25 +4441,25 @@
     </row>
     <row r="67" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>12</v>
@@ -4481,7 +4477,7 @@
         <v>16</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>23</v>
@@ -4492,25 +4488,25 @@
     </row>
     <row r="68" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>12</v>
@@ -4528,7 +4524,7 @@
         <v>16</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>23</v>
@@ -4539,25 +4535,25 @@
     </row>
     <row r="69" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>12</v>
@@ -4575,7 +4571,7 @@
         <v>16</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>23</v>
@@ -4586,25 +4582,25 @@
     </row>
     <row r="70" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>12</v>
@@ -4622,7 +4618,7 @@
         <v>16</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>23</v>
@@ -4633,25 +4629,25 @@
     </row>
     <row r="71" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>12</v>
@@ -4669,7 +4665,7 @@
         <v>16</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>23</v>
@@ -4680,25 +4676,25 @@
     </row>
     <row r="72" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>12</v>
@@ -4716,7 +4712,7 @@
         <v>16</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>23</v>
@@ -4727,22 +4723,22 @@
     </row>
     <row r="73" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>12</v>
@@ -4760,7 +4756,7 @@
         <v>16</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>23</v>
@@ -4771,22 +4767,22 @@
     </row>
     <row r="74" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>12</v>
@@ -4804,7 +4800,7 @@
         <v>16</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>23</v>
@@ -4815,22 +4811,22 @@
     </row>
     <row r="75" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>12</v>
@@ -4848,7 +4844,7 @@
         <v>16</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>23</v>
@@ -4859,22 +4855,22 @@
     </row>
     <row r="76" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>12</v>
@@ -4892,7 +4888,7 @@
         <v>16</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>23</v>
@@ -4903,22 +4899,22 @@
     </row>
     <row r="77" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>12</v>
@@ -4936,7 +4932,7 @@
         <v>16</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>23</v>
@@ -4947,22 +4943,22 @@
     </row>
     <row r="78" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>12</v>
@@ -4980,7 +4976,7 @@
         <v>16</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>23</v>
@@ -4991,25 +4987,25 @@
     </row>
     <row r="79" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>12</v>
@@ -5027,7 +5023,7 @@
         <v>16</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>23</v>
@@ -5038,26 +5034,26 @@
     </row>
     <row r="80" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="H80" s="5" t="s">
         <v>12</v>
       </c>
@@ -5074,7 +5070,7 @@
         <v>16</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>23</v>
@@ -5085,22 +5081,22 @@
     </row>
     <row r="81" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>12</v>
@@ -5118,7 +5114,7 @@
         <v>16</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>23</v>
@@ -5129,22 +5125,22 @@
     </row>
     <row r="82" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>12</v>
@@ -5162,7 +5158,7 @@
         <v>16</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>23</v>
@@ -5173,22 +5169,22 @@
     </row>
     <row r="83" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>12</v>
@@ -5206,7 +5202,7 @@
         <v>16</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>23</v>
@@ -5217,25 +5213,25 @@
     </row>
     <row r="84" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>12</v>
@@ -5253,7 +5249,7 @@
         <v>16</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>23</v>
@@ -5264,25 +5260,25 @@
     </row>
     <row r="85" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>12</v>
@@ -5300,7 +5296,7 @@
         <v>16</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>23</v>
@@ -5311,25 +5307,25 @@
     </row>
     <row r="86" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>12</v>
@@ -5347,7 +5343,7 @@
         <v>16</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
@@ -5360,25 +5356,25 @@
     </row>
     <row r="87" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>12</v>
@@ -5396,7 +5392,7 @@
         <v>16</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>23</v>
@@ -5407,25 +5403,25 @@
     </row>
     <row r="88" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>12</v>
@@ -5443,7 +5439,7 @@
         <v>16</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>23</v>
@@ -5454,25 +5450,25 @@
     </row>
     <row r="89" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>12</v>
@@ -5490,7 +5486,7 @@
         <v>16</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>23</v>
@@ -5501,25 +5497,25 @@
     </row>
     <row r="90" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>12</v>
@@ -5537,7 +5533,7 @@
         <v>16</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>23</v>
@@ -5548,25 +5544,25 @@
     </row>
     <row r="91" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>12</v>
@@ -5584,7 +5580,7 @@
         <v>16</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>23</v>
@@ -5595,25 +5591,25 @@
     </row>
     <row r="92" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>12</v>
@@ -5631,7 +5627,7 @@
         <v>16</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>23</v>
@@ -5642,25 +5638,25 @@
     </row>
     <row r="93" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>12</v>
@@ -5678,7 +5674,7 @@
         <v>16</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>23</v>
@@ -5689,25 +5685,25 @@
     </row>
     <row r="94" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>12</v>
@@ -5725,7 +5721,7 @@
         <v>16</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>23</v>
@@ -5736,25 +5732,25 @@
     </row>
     <row r="95" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>12</v>
@@ -5772,7 +5768,7 @@
         <v>16</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>23</v>
@@ -5783,25 +5779,25 @@
     </row>
     <row r="96" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>12</v>
@@ -5819,7 +5815,7 @@
         <v>16</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>23</v>
@@ -5830,25 +5826,25 @@
     </row>
     <row r="97" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>12</v>
@@ -5866,7 +5862,7 @@
         <v>16</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P97" s="3" t="s">
         <v>23</v>
@@ -5877,25 +5873,25 @@
     </row>
     <row r="98" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>12</v>
@@ -5913,7 +5909,7 @@
         <v>16</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>23</v>
@@ -5924,25 +5920,25 @@
     </row>
     <row r="99" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>12</v>
@@ -5960,7 +5956,7 @@
         <v>16</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>23</v>
@@ -5971,25 +5967,25 @@
     </row>
     <row r="100" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>12</v>
@@ -6007,7 +6003,7 @@
         <v>16</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>23</v>
@@ -6018,25 +6014,25 @@
     </row>
     <row r="101" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>12</v>
@@ -6054,7 +6050,7 @@
         <v>16</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>23</v>
@@ -6065,25 +6061,25 @@
     </row>
     <row r="102" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G102" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>12</v>
@@ -6101,7 +6097,7 @@
         <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>23</v>
@@ -6112,25 +6108,25 @@
     </row>
     <row r="103" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>12</v>
@@ -6148,7 +6144,7 @@
         <v>16</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>23</v>
@@ -6159,25 +6155,25 @@
     </row>
     <row r="104" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F104" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>12</v>
@@ -6195,7 +6191,7 @@
         <v>16</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P104" s="3" t="s">
         <v>23</v>
@@ -6206,22 +6202,22 @@
     </row>
     <row r="105" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F105" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>12</v>
@@ -6239,7 +6235,7 @@
         <v>16</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P105" s="3" t="s">
         <v>23</v>
@@ -6250,22 +6246,22 @@
     </row>
     <row r="106" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F106" s="32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>12</v>
@@ -6283,7 +6279,7 @@
         <v>16</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>23</v>
@@ -6294,22 +6290,22 @@
     </row>
     <row r="107" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F107" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>12</v>
@@ -6327,7 +6323,7 @@
         <v>16</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>23</v>
@@ -6338,22 +6334,22 @@
     </row>
     <row r="108" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F108" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>12</v>
@@ -6371,7 +6367,7 @@
         <v>16</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P108" s="3" t="s">
         <v>23</v>
@@ -6382,22 +6378,22 @@
     </row>
     <row r="109" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F109" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>12</v>
@@ -6415,7 +6411,7 @@
         <v>16</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>23</v>
@@ -6426,22 +6422,22 @@
     </row>
     <row r="110" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>12</v>
@@ -6459,7 +6455,7 @@
         <v>16</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P110" s="3" t="s">
         <v>23</v>
@@ -6470,25 +6466,25 @@
     </row>
     <row r="111" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F111" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>12</v>
@@ -6506,7 +6502,7 @@
         <v>16</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>23</v>
@@ -6517,26 +6513,26 @@
     </row>
     <row r="112" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F112" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="H112" s="5" t="s">
         <v>12</v>
       </c>
@@ -6553,7 +6549,7 @@
         <v>16</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P112" s="3" t="s">
         <v>23</v>
@@ -6564,22 +6560,22 @@
     </row>
     <row r="113" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F113" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>12</v>
@@ -6597,7 +6593,7 @@
         <v>16</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P113" s="3" t="s">
         <v>23</v>
@@ -6608,22 +6604,22 @@
     </row>
     <row r="114" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F114" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>12</v>
@@ -6641,7 +6637,7 @@
         <v>16</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>23</v>
@@ -6652,22 +6648,22 @@
     </row>
     <row r="115" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F115" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>12</v>
@@ -6685,7 +6681,7 @@
         <v>16</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P115" s="3" t="s">
         <v>23</v>
@@ -6696,25 +6692,25 @@
     </row>
     <row r="116" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>12</v>
@@ -6732,7 +6728,7 @@
         <v>16</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P116" s="3" t="s">
         <v>23</v>
@@ -6743,25 +6739,25 @@
     </row>
     <row r="117" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>12</v>
@@ -6779,7 +6775,7 @@
         <v>16</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>23</v>
@@ -6790,25 +6786,25 @@
     </row>
     <row r="118" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G118" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H118" s="10" t="s">
         <v>12</v>
@@ -6826,7 +6822,7 @@
         <v>16</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N118" s="9"/>
       <c r="O118" s="9"/>
@@ -6839,25 +6835,25 @@
     </row>
     <row r="119" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G119" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>12</v>
@@ -6875,7 +6871,7 @@
         <v>16</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P119" s="3" t="s">
         <v>23</v>
@@ -6886,25 +6882,25 @@
     </row>
     <row r="120" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>12</v>
@@ -6922,7 +6918,7 @@
         <v>16</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P120" s="3" t="s">
         <v>23</v>
@@ -6933,25 +6929,25 @@
     </row>
     <row r="121" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>12</v>
@@ -6969,7 +6965,7 @@
         <v>16</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P121" s="3" t="s">
         <v>23</v>
@@ -6980,25 +6976,25 @@
     </row>
     <row r="122" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>12</v>
@@ -7016,7 +7012,7 @@
         <v>16</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P122" s="3" t="s">
         <v>23</v>
@@ -7027,25 +7023,25 @@
     </row>
     <row r="123" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>12</v>
@@ -7063,7 +7059,7 @@
         <v>16</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>23</v>
@@ -7074,25 +7070,25 @@
     </row>
     <row r="124" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>12</v>
@@ -7110,7 +7106,7 @@
         <v>16</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P124" s="3" t="s">
         <v>23</v>
@@ -7121,25 +7117,25 @@
     </row>
     <row r="125" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>12</v>
@@ -7157,7 +7153,7 @@
         <v>16</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P125" s="3" t="s">
         <v>23</v>
@@ -7168,25 +7164,25 @@
     </row>
     <row r="126" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>12</v>
@@ -7204,7 +7200,7 @@
         <v>16</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P126" s="3" t="s">
         <v>23</v>
@@ -7215,25 +7211,25 @@
     </row>
     <row r="127" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>12</v>
@@ -7251,7 +7247,7 @@
         <v>16</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P127" s="3" t="s">
         <v>23</v>
@@ -7262,25 +7258,25 @@
     </row>
     <row r="128" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>12</v>
@@ -7298,7 +7294,7 @@
         <v>16</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P128" s="3" t="s">
         <v>23</v>
@@ -7309,25 +7305,25 @@
     </row>
     <row r="129" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>12</v>
@@ -7345,7 +7341,7 @@
         <v>16</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P129" s="3" t="s">
         <v>23</v>
@@ -7356,25 +7352,25 @@
     </row>
     <row r="130" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F130" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>12</v>
@@ -7392,7 +7388,7 @@
         <v>16</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P130" s="3" t="s">
         <v>23</v>
@@ -7403,25 +7399,25 @@
     </row>
     <row r="131" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>12</v>
@@ -7439,7 +7435,7 @@
         <v>16</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P131" s="3" t="s">
         <v>23</v>
@@ -7450,25 +7446,25 @@
     </row>
     <row r="132" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>12</v>
@@ -7486,7 +7482,7 @@
         <v>16</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>23</v>
@@ -7497,25 +7493,25 @@
     </row>
     <row r="133" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>12</v>
@@ -7533,7 +7529,7 @@
         <v>16</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>23</v>
@@ -7544,25 +7540,25 @@
     </row>
     <row r="134" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>12</v>
@@ -7580,7 +7576,7 @@
         <v>16</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P134" s="3" t="s">
         <v>23</v>
@@ -7591,25 +7587,25 @@
     </row>
     <row r="135" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>12</v>
@@ -7627,7 +7623,7 @@
         <v>16</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P135" s="3" t="s">
         <v>23</v>
@@ -7638,25 +7634,25 @@
     </row>
     <row r="136" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>12</v>
@@ -7674,7 +7670,7 @@
         <v>16</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P136" s="3" t="s">
         <v>23</v>
@@ -7685,25 +7681,25 @@
     </row>
     <row r="137" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F137" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>12</v>
@@ -7721,7 +7717,7 @@
         <v>16</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P137" s="3" t="s">
         <v>23</v>
@@ -7732,25 +7728,25 @@
     </row>
     <row r="138" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>12</v>
@@ -7768,7 +7764,7 @@
         <v>16</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P138" s="3" t="s">
         <v>23</v>
@@ -7779,25 +7775,25 @@
     </row>
     <row r="139" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F139" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>12</v>
@@ -7815,7 +7811,7 @@
         <v>16</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>23</v>
@@ -7826,25 +7822,25 @@
     </row>
     <row r="140" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F140" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>12</v>
@@ -7862,7 +7858,7 @@
         <v>16</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>23</v>
@@ -7873,25 +7869,25 @@
     </row>
     <row r="141" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F141" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>12</v>
@@ -7909,7 +7905,7 @@
         <v>16</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>23</v>
@@ -7920,25 +7916,25 @@
     </row>
     <row r="142" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G142" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H142" s="10" t="s">
         <v>12</v>
@@ -7956,7 +7952,7 @@
         <v>16</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N142" s="9"/>
       <c r="O142" s="9"/>
@@ -7969,25 +7965,25 @@
     </row>
     <row r="143" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G143" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>12</v>
@@ -8005,7 +8001,7 @@
         <v>16</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P143" s="3" t="s">
         <v>23</v>
@@ -8016,25 +8012,25 @@
     </row>
     <row r="144" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>12</v>
@@ -8052,7 +8048,7 @@
         <v>16</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P144" s="3" t="s">
         <v>23</v>
@@ -8063,25 +8059,25 @@
     </row>
     <row r="145" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>12</v>
@@ -8099,7 +8095,7 @@
         <v>16</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P145" s="3" t="s">
         <v>23</v>
@@ -8110,25 +8106,25 @@
     </row>
     <row r="146" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F146" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>12</v>
@@ -8146,7 +8142,7 @@
         <v>16</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P146" s="3" t="s">
         <v>23</v>
@@ -8157,25 +8153,25 @@
     </row>
     <row r="147" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F147" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>12</v>
@@ -8193,7 +8189,7 @@
         <v>16</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P147" s="3" t="s">
         <v>23</v>
@@ -8204,25 +8200,25 @@
     </row>
     <row r="148" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>12</v>
@@ -8240,7 +8236,7 @@
         <v>16</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P148" s="3" t="s">
         <v>23</v>
@@ -8251,25 +8247,25 @@
     </row>
     <row r="149" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>12</v>
@@ -8287,7 +8283,7 @@
         <v>16</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P149" s="3" t="s">
         <v>23</v>
@@ -8298,25 +8294,25 @@
     </row>
     <row r="150" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>12</v>
@@ -8334,7 +8330,7 @@
         <v>16</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P150" s="3" t="s">
         <v>23</v>
@@ -8345,25 +8341,25 @@
     </row>
     <row r="151" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>12</v>
@@ -8381,7 +8377,7 @@
         <v>16</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P151" s="3" t="s">
         <v>23</v>
@@ -8392,25 +8388,25 @@
     </row>
     <row r="152" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F152" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>12</v>
@@ -8428,7 +8424,7 @@
         <v>16</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P152" s="3" t="s">
         <v>23</v>
@@ -8439,25 +8435,25 @@
     </row>
     <row r="153" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F153" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>12</v>
@@ -8475,7 +8471,7 @@
         <v>16</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P153" s="3" t="s">
         <v>23</v>
@@ -8486,25 +8482,25 @@
     </row>
     <row r="154" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F154" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>12</v>
@@ -8522,7 +8518,7 @@
         <v>16</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P154" s="3" t="s">
         <v>23</v>
@@ -8533,25 +8529,25 @@
     </row>
     <row r="155" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E155" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F155" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="C155" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D155" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E155" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F155" s="29" t="s">
-        <v>196</v>
-      </c>
       <c r="G155" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>12</v>
@@ -8569,7 +8565,7 @@
         <v>16</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P155" s="3" t="s">
         <v>23</v>
@@ -8580,25 +8576,25 @@
     </row>
     <row r="156" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F156" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>12</v>
@@ -8616,7 +8612,7 @@
         <v>16</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P156" s="3" t="s">
         <v>23</v>
@@ -8627,25 +8623,25 @@
     </row>
     <row r="157" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F157" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>12</v>
@@ -8663,7 +8659,7 @@
         <v>16</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P157" s="3" t="s">
         <v>23</v>
@@ -8674,25 +8670,25 @@
     </row>
     <row r="158" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F158" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>12</v>
@@ -8710,7 +8706,7 @@
         <v>16</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P158" s="3" t="s">
         <v>23</v>
@@ -8721,25 +8717,25 @@
     </row>
     <row r="159" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F159" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>12</v>
@@ -8757,7 +8753,7 @@
         <v>16</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P159" s="3" t="s">
         <v>23</v>
@@ -8768,25 +8764,25 @@
     </row>
     <row r="160" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E160" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>12</v>
@@ -8804,7 +8800,7 @@
         <v>16</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P160" s="3" t="s">
         <v>23</v>
@@ -8815,25 +8811,25 @@
     </row>
     <row r="161" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E161" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F161" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G161" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>12</v>
@@ -8851,7 +8847,7 @@
         <v>16</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P161" s="3" t="s">
         <v>23</v>
@@ -8862,25 +8858,25 @@
     </row>
     <row r="162" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E162" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F162" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G162" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>12</v>
@@ -8898,7 +8894,7 @@
         <v>16</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P162" s="3" t="s">
         <v>23</v>
@@ -8909,25 +8905,25 @@
     </row>
     <row r="163" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E163" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F163" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>12</v>
@@ -8945,7 +8941,7 @@
         <v>16</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P163" s="3" t="s">
         <v>23</v>
@@ -8956,25 +8952,25 @@
     </row>
     <row r="164" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F164" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G164" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>12</v>
@@ -8992,7 +8988,7 @@
         <v>16</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P164" s="3" t="s">
         <v>23</v>
@@ -9003,25 +8999,25 @@
     </row>
     <row r="165" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F165" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G165" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>12</v>
@@ -9039,7 +9035,7 @@
         <v>16</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P165" s="3" t="s">
         <v>23</v>
@@ -9050,25 +9046,25 @@
     </row>
     <row r="166" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F166" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G166" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H166" s="10" t="s">
         <v>12</v>
@@ -9086,7 +9082,7 @@
         <v>16</v>
       </c>
       <c r="M166" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N166" s="9"/>
       <c r="O166" s="9"/>
